--- a/docs/信息发布系统数据字典.xlsx
+++ b/docs/信息发布系统数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,13 @@
     <sheet name="文件信息表" sheetId="6" r:id="rId6"/>
     <sheet name="文稿信息表" sheetId="7" r:id="rId7"/>
     <sheet name="终端播单信息表" sheetId="8" r:id="rId8"/>
-    <sheet name="终端任务信息表" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -481,34 +480,6 @@
   </si>
   <si>
     <t>edit_status</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_agent_task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端任务信息表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端任务信息表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务 ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1029,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1137,15 +1108,9 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="27" customHeight="1">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5"/>
     </row>
   </sheetData>
@@ -1158,7 +1123,6 @@
     <hyperlink ref="C6" location="文件信息表!A1" display="文件信息表"/>
     <hyperlink ref="C7" location="文稿信息表!A1" display="文稿信息表"/>
     <hyperlink ref="C8" location="终端播单信息表!A1" display="终端播单信息表"/>
-    <hyperlink ref="C9" location="终端任务信息表!A1" display="终端任务信息表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2951,9 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3221,258 +3183,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="32.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A7" s="16">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A8" s="16">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A9" s="16">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A10" s="16">
-        <v>5</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A11" s="16">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A12" s="16">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A13" s="16">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="目录!A1" display="返回目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>